--- a/src/main/webapp/WEB-INF/Template/code_mg.xlsx
+++ b/src/main/webapp/WEB-INF/Template/code_mg.xlsx
@@ -76,8 +76,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -374,34 +380,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
